--- a/biology/Médecine/Un_homme_d'exception/Un_homme_d'exception.xlsx
+++ b/biology/Médecine/Un_homme_d'exception/Un_homme_d'exception.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un_homme_d%27exception</t>
+          <t>Un_homme_d'exception</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homme d'exception (A Beautiful Mind) est un film réalisé en 2001 par Ron Howard adapté du livre Un cerveau d'exception, la biographie de John Forbes Nash Jr. écrite par Sylvia Nasar, ancienne journaliste économique pour le New York Times, et parue en 1999.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Un_homme_d%27exception</t>
+          <t>Un_homme_d'exception</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1947, John Forbes Nash Jr. est un brillant élève, qui élabore sa théorie économique des jeux à l'université de Princeton. Au début des années 1950, à la suite de ses travaux et de son enseignement au Massachusetts Institute of Technology, William Parcher, agent fédéral américain, se présente à lui pour lui proposer d'aider secrètement les États-Unis. La mission de John consiste à décrypter dans la presse les messages secrets d'espions russes, censés préparer un attentat nucléaire sur le territoire américain.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Un_homme_d%27exception</t>
+          <t>Un_homme_d'exception</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre francophone : Un homme d'exception
 Titre original : A Beautiful Mind
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Un_homme_d%27exception</t>
+          <t>Un_homme_d'exception</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Russell Crowe (VF : Emmanuel Jacomy) : John Forbes Nash Jr.
 Ed Harris (VF : Patrick Floersheim) : William Parcher
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Un_homme_d%27exception</t>
+          <t>Un_homme_d'exception</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,11 +654,13 @@
           <t>Critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette description des événements les plus tragiques de la vie de John Nash souffre de quelques inexactitudes et oublis, parmi lesquels la réinvention du jeu Hex, joué sur le carrelage hexagonal des salles de bains de Princeton (les scènes se référant à la réinvention de Hex ont été tournées, mais furent coupées au montage afin de maintenir un certain rythme scénaristique). 
 La version française comporte également quelques erreurs de traduction, probablement dues à l'absence de mathématiciens parmi les traducteurs. Ainsi, « … are covering spaces » est par exemple traduit par « … recouvrent les espaces » au lieu de « … sont des revêtements ». De même, le nom du grand mathématicien allemand Riemann est prononcé Raïmane au lieu de Rimane.
-Le documentaire sur PBS A Brilliant Madness[1] tente d'être plus précis. Des personnages imaginaires (un agent des services secrets, un ami rencontré à l'université et la nièce de 11 ans de cet ami) ont été inventés pour le cinéma, afin d'illustrer les délires schizophrènes du personnage.
+Le documentaire sur PBS A Brilliant Madness tente d'être plus précis. Des personnages imaginaires (un agent des services secrets, un ami rencontré à l'université et la nièce de 11 ans de cet ami) ont été inventés pour le cinéma, afin d'illustrer les délires schizophrènes du personnage.
 </t>
         </is>
       </c>
@@ -651,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Un_homme_d%27exception</t>
+          <t>Un_homme_d'exception</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,7 +689,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Oscars 2002 :
 Oscar du meilleur film
@@ -685,7 +707,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Un_homme_d%27exception</t>
+          <t>Un_homme_d'exception</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,7 +725,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) « A Brilliant Madness », présentation et transcription en ligne sur PBS ; (en) « documentaire disponible » sur Internet Archive.
